--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1332.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1332.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.083798208379633</v>
+        <v>1.051828742027283</v>
       </c>
       <c r="B1">
-        <v>2.582161001705554</v>
+        <v>2.264790773391724</v>
       </c>
       <c r="C1">
-        <v>4.753245871277829</v>
+        <v>9.462464332580566</v>
       </c>
       <c r="D1">
-        <v>2.355504590490658</v>
+        <v>2.371566772460938</v>
       </c>
       <c r="E1">
-        <v>1.210888696959564</v>
+        <v>1.334019303321838</v>
       </c>
     </row>
   </sheetData>
